--- a/biology/Médecine/Intoxication_au_sélénium/Intoxication_au_sélénium.xlsx
+++ b/biology/Médecine/Intoxication_au_sélénium/Intoxication_au_sélénium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Intoxication_au_s%C3%A9l%C3%A9nium</t>
+          <t>Intoxication_au_sélénium</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une intoxication au sélénium peut être reconnue comme maladie professionnelle en France.
 Cet article relève du domaine de la législation sur la protection sociale et a un caractère davantage  juridique que médical.
-Il est à noter que certains organismes (champignons notamment) peuvent bioaccumuler le sélénium[1].
+Il est à noter que certains organismes (champignons notamment) peuvent bioaccumuler le sélénium.
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Intoxication_au_s%C3%A9l%C3%A9nium</t>
+          <t>Intoxication_au_sélénium</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,9 +527,50 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Régime général
-Utilisations et données professionnelles
-Le sulfure de sélénium est employé comme traitement en dermatologie, en raison de son action fongicide, par exemple dans le traitement des pellicules grasses (Selsun).
+          <t>Régime général</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Intoxication_au_sélénium</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Intoxication_au_s%C3%A9l%C3%A9nium</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Législation en France</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Utilisations et données professionnelles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le sulfure de sélénium est employé comme traitement en dermatologie, en raison de son action fongicide, par exemple dans le traitement des pellicules grasses (Selsun).
 Photocopieur, imprimante laser et autres appareils xérographiques.
 Le sélénium est utilisé pour recouvrir le « tambour » (cylindre brillant).
 Il est chargé électriquement, puis un rayon laser décharge plus ou moins (en rendant le sélénium conducteur) les parties blanches ou claires de l'image.
@@ -530,11 +583,45 @@
 Son usage comme semi-conducteur était devenu marginal, à l'exception de dispositifs limiteurs de tension où il reste en compétition avec les MoV(Metal-Oxyde Varistor).
 Il semble retrouver une seconde jeunesse :
 dans des capteurs d'image pour rayons « X » car il permet la conversion directe rayonnement → flux d'électrons,
-dans la fabrication de cellules photovoltaïques dites « amorphes » de grande dimension au rendement honorable (15 %) et au coût réduit, à base de CuInSe2.
-Données médicales
-Le sélénium métallique, aux teneur environnementales courantes est sans danger ; à faible dose, c'est un oligoélément indispensable, qui semble par exemple limiter les risques de cancer de la prostate[3]. Par contre nombre de ses composés sont extrêmement toxiques[4]. 
-La dose toxique chez l’humain est facilement atteignable, soit 400 µg/jour[5]. Il entraine alors des nausées, des diarrhées, une fragilisation des ongles, la perte des cheveux ou de la fatigue. 
-Les recommandations américaines indiquent une dose quotidienne maximale à 400 µg/jour, or la supplémentation atteint facilement 200 µg/jour, en plus de l'apport nutritionnel, ce qui expose à un risque de surdosage[6].  
+dans la fabrication de cellules photovoltaïques dites « amorphes » de grande dimension au rendement honorable (15 %) et au coût réduit, à base de CuInSe2.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Intoxication_au_sélénium</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Intoxication_au_s%C3%A9l%C3%A9nium</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Législation en France</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Données médicales</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le sélénium métallique, aux teneur environnementales courantes est sans danger ; à faible dose, c'est un oligoélément indispensable, qui semble par exemple limiter les risques de cancer de la prostate. Par contre nombre de ses composés sont extrêmement toxiques. 
+La dose toxique chez l’humain est facilement atteignable, soit 400 µg/jour. Il entraine alors des nausées, des diarrhées, une fragilisation des ongles, la perte des cheveux ou de la fatigue. 
+Les recommandations américaines indiquent une dose quotidienne maximale à 400 µg/jour, or la supplémentation atteint facilement 200 µg/jour, en plus de l'apport nutritionnel, ce qui expose à un risque de surdosage.  
 </t>
         </is>
       </c>
